--- a/biology/Zoologie/Chrysiridia_croesus/Chrysiridia_croesus.xlsx
+++ b/biology/Zoologie/Chrysiridia_croesus/Chrysiridia_croesus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chysiridia croesus est une espèce de lépidoptères (papillons) africains de la famille des Uraniidae. Elle est l'une des deux seules espèces du genre Chrysiridia, avec Chrysiridia rhipheus, morphologiquement très proche.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est présente en Afrique de l'Est, notamment au Kenya, au Mozambique, en Tanzanie et au Zimbabwe.
 </t>
@@ -542,7 +556,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce a été décrite pour la première fois par le zoologiste allemand Adolph Gerstäcker en 1871, sous le nom initial de Thaliura croesus, à partir de spécimens trouvés à Zanzibar.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description originale[1], l'auteur indique que l'imago de Chysiridia croesus a une envergure de 78 mm pour les mâles et de 92 mm pour les femelles.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description originale, l'auteur indique que l'imago de Chysiridia croesus a une envergure de 78 mm pour les mâles et de 92 mm pour les femelles.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien qu'appartenant à la super-famille des Geometroidea, composée majoritairement d'espèces nocturnes, il s'agit d'une espèce diurne. 
 </t>
